--- a/uploads/faculty.xlsx
+++ b/uploads/faculty.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\supi0\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18890D9-CA3B-413F-B335-1B42BDBB5BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5112"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,37 +25,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>faculty_name</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>sss</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>garret0716@gmail.com</t>
+  </si>
+  <si>
+    <t>kasibhatta.suprabhat.btech2022@sitpune.edu.in</t>
+  </si>
+  <si>
+    <t>supra</t>
+  </si>
+  <si>
+    <t>garret</t>
+  </si>
+  <si>
+    <t>FAC12300</t>
+  </si>
+  <si>
+    <t>FAC23400</t>
+  </si>
+  <si>
+    <t>FAC66600</t>
+  </si>
+  <si>
+    <t>gargimittal.10102003@gmail.com</t>
+  </si>
+  <si>
+    <t>gargimittal</t>
+  </si>
   <si>
     <t>Faculty_ID</t>
-  </si>
-  <si>
-    <t>B002</t>
-  </si>
-  <si>
-    <t>A001</t>
-  </si>
-  <si>
-    <t>C003</t>
-  </si>
-  <si>
-    <t>Faculty_email</t>
-  </si>
-  <si>
-    <t>gargi.mittal.btech2022@sitpune.edu.in</t>
-  </si>
-  <si>
-    <t>gehna.vithlani.btech2022@sitpune.edu.in</t>
-  </si>
-  <si>
-    <t>garret.fernendez.btech2022@sitpune.edu.in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +91,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -92,9 +123,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -375,53 +407,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>